--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aditshah/studies/winter-2023/distributed/project/group8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B92F1E5-4A4E-EB4E-8E64-8562A4B27146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4152716E-8190-2C45-AF31-6F5D4648AF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A30BEC21-76F5-164E-AB10-089CC3A0F69D}"/>
+    <workbookView xWindow="10260" yWindow="1320" windowWidth="25360" windowHeight="18000" xr2:uid="{A30BEC21-76F5-164E-AB10-089CC3A0F69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,15 +165,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -182,9 +184,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,457 +499,484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F292E5F-D0F5-7A45-B4EB-26597FF01562}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="6"/>
-    <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="6"/>
+    <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="H1" s="6"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="H2" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="8"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="4">
-        <v>100000</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="3">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="3">
         <v>156</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="3">
         <v>63.94</v>
       </c>
-      <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C8" s="3">
         <v>500</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="3">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="3">
         <v>7.38</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="3">
         <v>67.430000000000007</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="3">
         <v>32</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="4">
-        <v>100000</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="4">
-        <v>230</v>
-      </c>
-      <c r="F9" s="4">
-        <v>42.91</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="F9" s="3">
+        <v>1597.52</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="5">
-        <v>100000</v>
-      </c>
-      <c r="J9" s="5">
-        <v>100000</v>
-      </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="J9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
+      <c r="C10" s="3">
         <v>500</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="4">
-        <v>12.69</v>
-      </c>
-      <c r="F10" s="4">
-        <v>39.4</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="F10" s="3">
+        <v>82.18</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6.0839834000000002</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="3">
         <v>68</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="7"/>
+      <c r="I11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="6"/>
+      <c r="I12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="3">
         <v>156</v>
       </c>
-      <c r="J12" s="4">
-        <v>230</v>
-      </c>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3">
+        <v>1597.52</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="6"/>
+      <c r="I13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="3">
         <v>63.94</v>
       </c>
-      <c r="J13" s="4">
-        <v>42.91</v>
-      </c>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="6"/>
+      <c r="I14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="3">
         <v>498</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="3">
         <v>233</v>
       </c>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="6"/>
+      <c r="I15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="3">
         <v>96</v>
       </c>
-      <c r="J15" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>109</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="6"/>
+      <c r="I16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="3">
         <v>264</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="3">
         <v>289</v>
       </c>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="6"/>
+      <c r="I17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="3">
         <v>5085</v>
       </c>
-      <c r="J17" s="4">
-        <v>1470</v>
-      </c>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K17" s="3">
+        <v>1121</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="6"/>
+      <c r="I18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="3">
         <v>67.430000000000007</v>
       </c>
-      <c r="J18" s="4">
-        <v>39.4</v>
-      </c>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K18" s="3">
+        <v>6.0839834000000002</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="6"/>
+      <c r="I19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="3">
         <v>998</v>
       </c>
-      <c r="J19" s="4">
-        <v>134</v>
-      </c>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K19" s="3">
+        <v>234</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="6"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="7"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H23" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H24" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H25" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H26" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:G1048576"/>
-    <mergeCell ref="A11:F22"/>
-    <mergeCell ref="A3:F5"/>
-    <mergeCell ref="H1:K7"/>
-    <mergeCell ref="K8:K26"/>
-    <mergeCell ref="H20:J26"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A26"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="H1:H1048576"/>
+    <mergeCell ref="B11:G22"/>
+    <mergeCell ref="B3:G5"/>
+    <mergeCell ref="I1:L7"/>
+    <mergeCell ref="L8:L26"/>
+    <mergeCell ref="I20:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
